--- a/data/trans_dic/P38_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,58%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +579,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,64</t>
+          <t>5,02; 15,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,15; 39,11</t>
+          <t>4,36; 14,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 20,09</t>
+          <t>14,38; 31,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 14,2</t>
+          <t>15,13; 33,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 35,18</t>
+          <t>3,94; 13,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 21,85</t>
+          <t>4,98; 13,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,67</t>
+          <t>12,11; 26,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 34,46</t>
+          <t>19,18; 35,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 18,96</t>
+          <t>5,62; 12,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 12,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 25,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 31,2</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 9,6</t>
+          <t>2,16; 9,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 28,16</t>
+          <t>4,23; 13,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 14,56</t>
+          <t>7,36; 18,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 18,42</t>
+          <t>8,68; 28,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 35,72</t>
+          <t>8,3; 18,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 24,28</t>
+          <t>11,54; 21,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 12,12</t>
+          <t>14,8; 26,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,43; 29,07</t>
+          <t>14,31; 26,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,97</t>
+          <t>5,89; 11,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 15,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 20,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 24,41</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,44</t>
+          <t>4,27; 11,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 32,19</t>
+          <t>7,36; 14,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 22,0</t>
+          <t>10,04; 22,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 16,94</t>
+          <t>9,69; 20,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 40,18</t>
+          <t>9,68; 17,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,36; 27,81</t>
+          <t>11,44; 19,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 13,0</t>
+          <t>15,14; 24,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,52; 34,19</t>
+          <t>12,92; 22,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 23,01</t>
+          <t>8,51; 13,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 15,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 21,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,38; 19,71</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,11</t>
+          <t>6,76; 14,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,45; 37,43</t>
+          <t>7,23; 14,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 22,44</t>
+          <t>14,58; 24,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 15,29</t>
+          <t>16,37; 28,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 41,05</t>
+          <t>7,55; 15,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 31,58</t>
+          <t>9,96; 17,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,15</t>
+          <t>20,56; 29,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,59; 37,34</t>
+          <t>15,07; 25,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 25,67</t>
+          <t>8,05; 12,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 14,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18,58; 25,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 24,24</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>57,99%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>23,71%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 29,14</t>
+          <t>16,79; 29,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 51,71</t>
+          <t>17,58; 27,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,46; 43,62</t>
+          <t>39,02; 53,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,7; 31,4</t>
+          <t>32,35; 46,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,54; 64,57</t>
+          <t>19,37; 30,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,5; 56,74</t>
+          <t>24,53; 36,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,56</t>
+          <t>41,28; 56,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,95; 55,6</t>
+          <t>33,85; 47,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,7; 48,86</t>
+          <t>19,82; 28,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22,65; 30,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42,27; 52,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34,33; 44,8</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>78,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,97%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>59,98%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>76,18%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>78,51%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53,0; 71,51</t>
+          <t>51,85; 70,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,79; 86,65</t>
+          <t>54,25; 69,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,16; 79,46</t>
+          <t>68,93; 83,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,48; 57,24</t>
+          <t>72,28; 85,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,54; 81,12</t>
+          <t>43,63; 57,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,19; 82,42</t>
+          <t>52,11; 64,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,17; 60,25</t>
+          <t>67,56; 82,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,47; 82,39</t>
+          <t>70,55; 84,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>69,72; 79,15</t>
+          <t>49,67; 60,11</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>55,29; 64,64</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>71,02; 80,9</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73,62; 82,65</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,58</t>
+          <t>16,09; 20,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,29; 40,39</t>
+          <t>17,36; 22,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,15</t>
+          <t>28,02; 34,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,57; 23,29</t>
+          <t>28,09; 34,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,95; 47,22</t>
+          <t>18,62; 23,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,22</t>
+          <t>21,9; 26,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,12; 21,54</t>
+          <t>32,95; 39,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,23; 43,3</t>
+          <t>32,75; 38,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,35; 33,41</t>
+          <t>18,2; 21,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 23,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31,21; 35,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30,82; 35,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,58%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45608</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44010</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>101996</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9748</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36087</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>41220</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>81937</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81696</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85229</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>183933</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24835; 77879</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21793; 73404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67024; 144653</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6385; 14143</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18364; 60780</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25245; 67707</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55646; 120078</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7341; 13621</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53966; 117930</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56356; 126013</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>139158; 233054</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14998; 25113</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28454</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45725</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68965</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7262</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63318</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>79472</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>102229</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>91772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>125197</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>171194</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16311</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12358; 54001</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23784; 76064</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41608; 106283</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4092; 13667</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>42685; 94175</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>58312; 107890</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73978; 134670</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6547; 12017</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64050; 124085</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>93672; 166113</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>122237; 220971</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12222; 22677</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51754</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70796</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98329</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96083</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>105664</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>138949</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9530</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>147837</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>176460</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>237278</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18399</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29219; 76849</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49319; 99020</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67104; 148550</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5861; 12526</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>68948; 127358</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>81743; 136177</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>106966; 175864</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6981; 12419</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>118775; 189883</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>143274; 217092</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>186587; 293504</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14180; 22575</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64325</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66048</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>124124</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12179</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>72716</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>89221</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>163367</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10296</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>137041</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>155269</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>287490</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22475</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43592; 90395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46691; 92726</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95629; 160193</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9228; 15883</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51613; 103450</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>67079; 115305</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>134779; 194819</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7957; 13410</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106968; 172400</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>123218; 188768</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>243724; 333517</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18212; 26455</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>110932</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112477</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>229285</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17464</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>126216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>150502</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>249642</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18902</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>237149</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>262979</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>478928</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36366</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82815; 143336</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>87901; 138377</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>193147; 263830</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14335; 20675</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98170; 157055</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>123428; 182354</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>211035; 287865</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15858; 22272</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>198224; 282559</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>227203; 303815</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>425402; 532585</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>31298; 40842</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>331138</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>324421</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>439852</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>36213</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>359660</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>390674</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>543528</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>49509</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>690798</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>715095</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>983380</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>85722</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>280869; 379459</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>283637; 361173</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>390396; 474201</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33136; 38982</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>311666; 412302</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>348835; 433293</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>489477; 595580</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>44683; 53282</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>623861; 755088</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>659135; 770678</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>916775; 1044400</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>80378; 90239</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>715.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>632212</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>663477</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1062551</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>91735</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>754082</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>856753</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1279653</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>107377</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1386293</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1520230</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2342203</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>199112</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>552039; 717148</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>590369; 751570</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>957535; 1183687</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>83240; 102586</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>669600; 836749</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>782198; 938129</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1171995; 1391653</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>98593; 116593</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1279527; 1508779</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1408143; 1649074</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2176658; 2498394</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>184135; 210797</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>